--- a/Data/InputExcel.xlsx
+++ b/Data/InputExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C88DB-0D81-4BCC-AC31-E2141C3EEAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9C8FF-C74A-4E64-A2D7-C4E64F6E6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Case</t>
   </si>
@@ -33,31 +33,37 @@
     <t>CaseCompleted</t>
   </si>
   <si>
-    <t>CON/17006/22</t>
-  </si>
-  <si>
-    <t>NEWB/16101/22</t>
-  </si>
-  <si>
-    <t>NEWB/16147/22</t>
-  </si>
-  <si>
-    <t>NEWB/16153/22</t>
-  </si>
-  <si>
-    <t>NEWB/16964/22</t>
-  </si>
-  <si>
-    <t>NEWB/17154/22</t>
-  </si>
-  <si>
-    <t>NEWB/17757/23</t>
-  </si>
-  <si>
-    <t>NEWB/17802/23</t>
-  </si>
-  <si>
-    <t>NEWB/18338/23</t>
+    <t>CON/18536/23</t>
+  </si>
+  <si>
+    <t>CON/18537/23</t>
+  </si>
+  <si>
+    <t>CON/18543/23</t>
+  </si>
+  <si>
+    <t>CON/18584/23</t>
+  </si>
+  <si>
+    <t>CON/18614/23</t>
+  </si>
+  <si>
+    <t>CON/18627/23</t>
+  </si>
+  <si>
+    <t>CON/18646/23</t>
+  </si>
+  <si>
+    <t>CON/18659/23</t>
+  </si>
+  <si>
+    <t>CON/18665/23</t>
+  </si>
+  <si>
+    <t>CON/18667/23</t>
+  </si>
+  <si>
+    <t>Processed</t>
   </si>
 </sst>
 </file>
@@ -78,12 +84,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -104,10 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,16 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -410,49 +425,99 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/InputExcel.xlsx
+++ b/Data/InputExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Knights_DataExtract_1.0\Knights\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9C8FF-C74A-4E64-A2D7-C4E64F6E6A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6547037-2854-4CA3-B511-663D2DED4BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="2160" windowWidth="15330" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Case</t>
   </si>
@@ -33,34 +33,13 @@
     <t>CaseCompleted</t>
   </si>
   <si>
-    <t>CON/18536/23</t>
-  </si>
-  <si>
-    <t>CON/18537/23</t>
-  </si>
-  <si>
-    <t>CON/18543/23</t>
-  </si>
-  <si>
-    <t>CON/18584/23</t>
-  </si>
-  <si>
-    <t>CON/18614/23</t>
-  </si>
-  <si>
-    <t>CON/18627/23</t>
-  </si>
-  <si>
-    <t>CON/18646/23</t>
-  </si>
-  <si>
-    <t>CON/18659/23</t>
-  </si>
-  <si>
-    <t>CON/18665/23</t>
-  </si>
-  <si>
-    <t>CON/18667/23</t>
+    <t>CON/18737/23</t>
+  </si>
+  <si>
+    <t>CON/18739/23</t>
+  </si>
+  <si>
+    <t>CON/18742/23</t>
   </si>
   <si>
     <t>Processed</t>
@@ -407,7 +386,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,66 +404,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
